--- a/outputs/nav_output.xlsx
+++ b/outputs/nav_output.xlsx
@@ -25905,7 +25905,7 @@
         <v>45381</v>
       </c>
       <c r="C1819" t="n">
-        <v>29.40978436421688</v>
+        <v>9.80326145473896</v>
       </c>
       <c r="D1819" t="b">
         <v>1</v>
@@ -25989,7 +25989,7 @@
         <v>45382</v>
       </c>
       <c r="C1825" t="n">
-        <v>29.40978436421688</v>
+        <v>9.80326145473896</v>
       </c>
       <c r="D1825" t="b">
         <v>1</v>
@@ -26031,7 +26031,7 @@
         <v>45383</v>
       </c>
       <c r="C1828" t="n">
-        <v>29.40978436421688</v>
+        <v>9.80326145473896</v>
       </c>
       <c r="D1828" t="b">
         <v>0</v>
@@ -26087,7 +26087,7 @@
         <v>45384</v>
       </c>
       <c r="C1832" t="n">
-        <v>28.52430100564376</v>
+        <v>9.508100335214587</v>
       </c>
       <c r="D1832" t="b">
         <v>0</v>
@@ -26143,7 +26143,7 @@
         <v>45385</v>
       </c>
       <c r="C1836" t="n">
-        <v>31.73480722044171</v>
+        <v>10.57826907348057</v>
       </c>
       <c r="D1836" t="b">
         <v>0</v>
@@ -26213,7 +26213,7 @@
         <v>45386</v>
       </c>
       <c r="C1841" t="n">
-        <v>33.76301670995919</v>
+        <v>11.25433890331973</v>
       </c>
       <c r="D1841" t="b">
         <v>0</v>
@@ -26255,7 +26255,7 @@
         <v>45387</v>
       </c>
       <c r="C1844" t="n">
-        <v>37.1836493354724</v>
+        <v>12.3945497784908</v>
       </c>
       <c r="D1844" t="b">
         <v>0</v>
@@ -26325,7 +26325,7 @@
         <v>45388</v>
       </c>
       <c r="C1849" t="n">
-        <v>32.4029171243751</v>
+        <v>10.8009723747917</v>
       </c>
       <c r="D1849" t="b">
         <v>1</v>
@@ -26381,7 +26381,7 @@
         <v>45389</v>
       </c>
       <c r="C1853" t="n">
-        <v>32.4029171243751</v>
+        <v>10.8009723747917</v>
       </c>
       <c r="D1853" t="b">
         <v>1</v>
@@ -26395,7 +26395,7 @@
         <v>45390</v>
       </c>
       <c r="C1854" t="n">
-        <v>32.4029171243751</v>
+        <v>10.8009723747917</v>
       </c>
       <c r="D1854" t="b">
         <v>0</v>
@@ -26465,7 +26465,7 @@
         <v>45391</v>
       </c>
       <c r="C1859" t="n">
-        <v>33.79817239247589</v>
+        <v>11.26605746415863</v>
       </c>
       <c r="D1859" t="b">
         <v>0</v>
@@ -26507,7 +26507,7 @@
         <v>45392</v>
       </c>
       <c r="C1862" t="n">
-        <v>34.68201038578773</v>
+        <v>11.56067012859591</v>
       </c>
       <c r="D1862" t="b">
         <v>0</v>
@@ -26605,7 +26605,7 @@
         <v>45393</v>
       </c>
       <c r="C1869" t="n">
-        <v>36.42719801612382</v>
+        <v>12.14239933870794</v>
       </c>
       <c r="D1869" t="b">
         <v>0</v>
@@ -26647,7 +26647,7 @@
         <v>45394</v>
       </c>
       <c r="C1872" t="n">
-        <v>32.53973647360392</v>
+        <v>10.84657882453464</v>
       </c>
       <c r="D1872" t="b">
         <v>0</v>
@@ -26703,7 +26703,7 @@
         <v>45395</v>
       </c>
       <c r="C1876" t="n">
-        <v>32.19044015306934</v>
+        <v>10.73014671768978</v>
       </c>
       <c r="D1876" t="b">
         <v>1</v>
@@ -26731,7 +26731,7 @@
         <v>45396</v>
       </c>
       <c r="C1878" t="n">
-        <v>32.19044015306934</v>
+        <v>10.73014671768978</v>
       </c>
       <c r="D1878" t="b">
         <v>1</v>
@@ -26815,7 +26815,7 @@
         <v>45397</v>
       </c>
       <c r="C1884" t="n">
-        <v>32.19044015306934</v>
+        <v>10.73014671768978</v>
       </c>
       <c r="D1884" t="b">
         <v>0</v>
@@ -26843,7 +26843,7 @@
         <v>45398</v>
       </c>
       <c r="C1886" t="n">
-        <v>33.62012175120292</v>
+        <v>11.20670725040097</v>
       </c>
       <c r="D1886" t="b">
         <v>0</v>
@@ -26913,7 +26913,7 @@
         <v>45399</v>
       </c>
       <c r="C1891" t="n">
-        <v>26.97215848429133</v>
+        <v>8.990719494763775</v>
       </c>
       <c r="D1891" t="b">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>45400</v>
       </c>
       <c r="C1896" t="n">
-        <v>35.24697057002982</v>
+        <v>11.74899019000994</v>
       </c>
       <c r="D1896" t="b">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         <v>45401</v>
       </c>
       <c r="C1898" t="n">
-        <v>32.00236811393532</v>
+        <v>10.66745603797844</v>
       </c>
       <c r="D1898" t="b">
         <v>0</v>
@@ -27081,7 +27081,7 @@
         <v>45402</v>
       </c>
       <c r="C1903" t="n">
-        <v>27.25049340419876</v>
+        <v>9.083497801399586</v>
       </c>
       <c r="D1903" t="b">
         <v>1</v>
@@ -27151,7 +27151,7 @@
         <v>45403</v>
       </c>
       <c r="C1908" t="n">
-        <v>27.25049340419876</v>
+        <v>9.083497801399586</v>
       </c>
       <c r="D1908" t="b">
         <v>1</v>
@@ -27221,7 +27221,7 @@
         <v>45404</v>
       </c>
       <c r="C1913" t="n">
-        <v>27.25049340419876</v>
+        <v>9.083497801399586</v>
       </c>
       <c r="D1913" t="b">
         <v>0</v>
@@ -27263,7 +27263,7 @@
         <v>45405</v>
       </c>
       <c r="C1916" t="n">
-        <v>33.61835300437518</v>
+        <v>11.20611766812506</v>
       </c>
       <c r="D1916" t="b">
         <v>0</v>
@@ -27319,7 +27319,7 @@
         <v>45406</v>
       </c>
       <c r="C1920" t="n">
-        <v>29.07024443590443</v>
+        <v>9.690081478634811</v>
       </c>
       <c r="D1920" t="b">
         <v>0</v>
@@ -27375,7 +27375,7 @@
         <v>45407</v>
       </c>
       <c r="C1924" t="n">
-        <v>28.03362021326283</v>
+        <v>9.344540071087609</v>
       </c>
       <c r="D1924" t="b">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>45408</v>
       </c>
       <c r="C1929" t="n">
-        <v>35.63466254853126</v>
+        <v>11.87822084951042</v>
       </c>
       <c r="D1929" t="b">
         <v>0</v>
@@ -27459,7 +27459,7 @@
         <v>45409</v>
       </c>
       <c r="C1930" t="n">
-        <v>30.81969164760942</v>
+        <v>10.27323054920314</v>
       </c>
       <c r="D1930" t="b">
         <v>1</v>
@@ -27515,7 +27515,7 @@
         <v>45410</v>
       </c>
       <c r="C1934" t="n">
-        <v>30.81969164760942</v>
+        <v>10.27323054920314</v>
       </c>
       <c r="D1934" t="b">
         <v>1</v>
@@ -27571,7 +27571,7 @@
         <v>45411</v>
       </c>
       <c r="C1938" t="n">
-        <v>30.81969164760942</v>
+        <v>10.27323054920314</v>
       </c>
       <c r="D1938" t="b">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>45412</v>
       </c>
       <c r="C1945" t="n">
-        <v>30.8326412330106</v>
+        <v>10.2775470776702</v>
       </c>
       <c r="D1945" t="b">
         <v>0</v>
@@ -27697,7 +27697,7 @@
         <v>45413</v>
       </c>
       <c r="C1947" t="n">
-        <v>29.94203112352382</v>
+        <v>9.980677041174607</v>
       </c>
       <c r="D1947" t="b">
         <v>0</v>
@@ -27767,7 +27767,7 @@
         <v>45414</v>
       </c>
       <c r="C1952" t="n">
-        <v>31.63485023790459</v>
+        <v>10.54495007930153</v>
       </c>
       <c r="D1952" t="b">
         <v>0</v>
@@ -27823,7 +27823,7 @@
         <v>45415</v>
       </c>
       <c r="C1956" t="n">
-        <v>35.90382607709699</v>
+        <v>11.967942025699</v>
       </c>
       <c r="D1956" t="b">
         <v>0</v>
@@ -27893,7 +27893,7 @@
         <v>45416</v>
       </c>
       <c r="C1961" t="n">
-        <v>32.09015953010484</v>
+        <v>10.69671984336828</v>
       </c>
       <c r="D1961" t="b">
         <v>1</v>
@@ -27935,7 +27935,7 @@
         <v>45417</v>
       </c>
       <c r="C1964" t="n">
-        <v>32.09015953010484</v>
+        <v>10.69671984336828</v>
       </c>
       <c r="D1964" t="b">
         <v>1</v>
@@ -28005,7 +28005,7 @@
         <v>45418</v>
       </c>
       <c r="C1969" t="n">
-        <v>32.09015953010484</v>
+        <v>10.69671984336828</v>
       </c>
       <c r="D1969" t="b">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>45419</v>
       </c>
       <c r="C1973" t="n">
-        <v>31.56991291737858</v>
+        <v>10.52330430579286</v>
       </c>
       <c r="D1973" t="b">
         <v>0</v>
@@ -28075,7 +28075,7 @@
         <v>45420</v>
       </c>
       <c r="C1974" t="n">
-        <v>31.37054334241671</v>
+        <v>10.45684778080557</v>
       </c>
       <c r="D1974" t="b">
         <v>0</v>
@@ -28131,7 +28131,7 @@
         <v>45421</v>
       </c>
       <c r="C1978" t="n">
-        <v>29.58617421150161</v>
+        <v>9.862058070500536</v>
       </c>
       <c r="D1978" t="b">
         <v>0</v>
@@ -28215,7 +28215,7 @@
         <v>45422</v>
       </c>
       <c r="C1984" t="n">
-        <v>29.518106720682</v>
+        <v>9.839368906894</v>
       </c>
       <c r="D1984" t="b">
         <v>0</v>
@@ -28285,7 +28285,7 @@
         <v>45423</v>
       </c>
       <c r="C1989" t="n">
-        <v>35.11716247595577</v>
+        <v>11.70572082531859</v>
       </c>
       <c r="D1989" t="b">
         <v>1</v>
@@ -28299,7 +28299,7 @@
         <v>45424</v>
       </c>
       <c r="C1990" t="n">
-        <v>35.11716247595577</v>
+        <v>11.70572082531859</v>
       </c>
       <c r="D1990" t="b">
         <v>1</v>
@@ -28355,7 +28355,7 @@
         <v>45425</v>
       </c>
       <c r="C1994" t="n">
-        <v>35.11716247595577</v>
+        <v>11.70572082531859</v>
       </c>
       <c r="D1994" t="b">
         <v>0</v>
@@ -28439,7 +28439,7 @@
         <v>45426</v>
       </c>
       <c r="C2000" t="n">
-        <v>32.56198814708142</v>
+        <v>10.85399604902714</v>
       </c>
       <c r="D2000" t="b">
         <v>0</v>
@@ -28495,7 +28495,7 @@
         <v>45427</v>
       </c>
       <c r="C2004" t="n">
-        <v>34.26516539089773</v>
+        <v>11.42172179696591</v>
       </c>
       <c r="D2004" t="b">
         <v>0</v>
@@ -28523,7 +28523,7 @@
         <v>45428</v>
       </c>
       <c r="C2006" t="n">
-        <v>29.40918036836494</v>
+        <v>9.803060122788313</v>
       </c>
       <c r="D2006" t="b">
         <v>0</v>
@@ -28607,7 +28607,7 @@
         <v>45429</v>
       </c>
       <c r="C2012" t="n">
-        <v>27.83719942326578</v>
+        <v>9.279066474421926</v>
       </c>
       <c r="D2012" t="b">
         <v>0</v>
@@ -28635,7 +28635,7 @@
         <v>45430</v>
       </c>
       <c r="C2014" t="n">
-        <v>32.47734406435722</v>
+        <v>10.82578135478574</v>
       </c>
       <c r="D2014" t="b">
         <v>1</v>
@@ -28733,7 +28733,7 @@
         <v>45431</v>
       </c>
       <c r="C2021" t="n">
-        <v>32.47734406435722</v>
+        <v>10.82578135478574</v>
       </c>
       <c r="D2021" t="b">
         <v>1</v>
@@ -28789,7 +28789,7 @@
         <v>45432</v>
       </c>
       <c r="C2025" t="n">
-        <v>32.47734406435722</v>
+        <v>10.82578135478574</v>
       </c>
       <c r="D2025" t="b">
         <v>0</v>
@@ -28845,7 +28845,7 @@
         <v>45433</v>
       </c>
       <c r="C2029" t="n">
-        <v>28.39556289630595</v>
+        <v>9.465187632101982</v>
       </c>
       <c r="D2029" t="b">
         <v>0</v>
@@ -28859,7 +28859,7 @@
         <v>45434</v>
       </c>
       <c r="C2030" t="n">
-        <v>27.58769651079233</v>
+        <v>9.195898836930775</v>
       </c>
       <c r="D2030" t="b">
         <v>0</v>
@@ -28957,7 +28957,7 @@
         <v>45435</v>
       </c>
       <c r="C2037" t="n">
-        <v>33.09120236121927</v>
+        <v>11.03040078707309</v>
       </c>
       <c r="D2037" t="b">
         <v>0</v>
@@ -28999,7 +28999,7 @@
         <v>45436</v>
       </c>
       <c r="C2040" t="n">
-        <v>29.61494015107073</v>
+        <v>9.871646717023578</v>
       </c>
       <c r="D2040" t="b">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>45437</v>
       </c>
       <c r="C2044" t="n">
-        <v>28.57710744125234</v>
+        <v>9.525702480417449</v>
       </c>
       <c r="D2044" t="b">
         <v>1</v>
@@ -29097,7 +29097,7 @@
         <v>45438</v>
       </c>
       <c r="C2047" t="n">
-        <v>28.57710744125234</v>
+        <v>9.525702480417449</v>
       </c>
       <c r="D2047" t="b">
         <v>1</v>
@@ -29153,7 +29153,7 @@
         <v>45439</v>
       </c>
       <c r="C2051" t="n">
-        <v>28.57710744125234</v>
+        <v>9.525702480417449</v>
       </c>
       <c r="D2051" t="b">
         <v>0</v>
@@ -29223,7 +29223,7 @@
         <v>45440</v>
       </c>
       <c r="C2056" t="n">
-        <v>35.67973689461265</v>
+        <v>11.89324563153755</v>
       </c>
       <c r="D2056" t="b">
         <v>0</v>
@@ -29265,7 +29265,7 @@
         <v>45441</v>
       </c>
       <c r="C2059" t="n">
-        <v>27.98394237516972</v>
+        <v>9.32798079172324</v>
       </c>
       <c r="D2059" t="b">
         <v>0</v>
@@ -29307,7 +29307,7 @@
         <v>45442</v>
       </c>
       <c r="C2062" t="n">
-        <v>32.31844347462426</v>
+        <v>10.77281449154142</v>
       </c>
       <c r="D2062" t="b">
         <v>0</v>
@@ -29377,7 +29377,7 @@
         <v>45443</v>
       </c>
       <c r="C2067" t="n">
-        <v>26.0976583897624</v>
+        <v>8.699219463254133</v>
       </c>
       <c r="D2067" t="b">
         <v>0</v>
@@ -29461,7 +29461,7 @@
         <v>45444</v>
       </c>
       <c r="C2073" t="n">
-        <v>28.73227973080596</v>
+        <v>9.577426576935318</v>
       </c>
       <c r="D2073" t="b">
         <v>1</v>
@@ -29517,7 +29517,7 @@
         <v>45445</v>
       </c>
       <c r="C2077" t="n">
-        <v>28.73227973080596</v>
+        <v>9.577426576935318</v>
       </c>
       <c r="D2077" t="b">
         <v>1</v>
@@ -29573,7 +29573,7 @@
         <v>45446</v>
       </c>
       <c r="C2081" t="n">
-        <v>28.73227973080596</v>
+        <v>9.577426576935318</v>
       </c>
       <c r="D2081" t="b">
         <v>0</v>
@@ -29587,7 +29587,7 @@
         <v>45447</v>
       </c>
       <c r="C2082" t="n">
-        <v>32.08854673520697</v>
+        <v>10.69618224506899</v>
       </c>
       <c r="D2082" t="b">
         <v>0</v>
@@ -29685,7 +29685,7 @@
         <v>45448</v>
       </c>
       <c r="C2089" t="n">
-        <v>26.95463264779787</v>
+        <v>8.984877549265958</v>
       </c>
       <c r="D2089" t="b">
         <v>0</v>
@@ -29699,7 +29699,7 @@
         <v>45449</v>
       </c>
       <c r="C2090" t="n">
-        <v>32.9036277976131</v>
+        <v>10.9678759325377</v>
       </c>
       <c r="D2090" t="b">
         <v>0</v>
@@ -29783,7 +29783,7 @@
         <v>45450</v>
       </c>
       <c r="C2096" t="n">
-        <v>29.91837407271781</v>
+        <v>9.972791357572603</v>
       </c>
       <c r="D2096" t="b">
         <v>0</v>
@@ -29839,7 +29839,7 @@
         <v>45451</v>
       </c>
       <c r="C2100" t="n">
-        <v>27.30777841448286</v>
+        <v>9.102592804827621</v>
       </c>
       <c r="D2100" t="b">
         <v>1</v>
@@ -29909,7 +29909,7 @@
         <v>45452</v>
       </c>
       <c r="C2105" t="n">
-        <v>27.30777841448286</v>
+        <v>9.102592804827621</v>
       </c>
       <c r="D2105" t="b">
         <v>1</v>
@@ -29965,7 +29965,7 @@
         <v>45453</v>
       </c>
       <c r="C2109" t="n">
-        <v>27.30777841448286</v>
+        <v>9.102592804827621</v>
       </c>
       <c r="D2109" t="b">
         <v>0</v>
@@ -29979,7 +29979,7 @@
         <v>45454</v>
       </c>
       <c r="C2110" t="n">
-        <v>32.25159399823179</v>
+        <v>10.75053133274393</v>
       </c>
       <c r="D2110" t="b">
         <v>0</v>
@@ -30077,7 +30077,7 @@
         <v>45455</v>
       </c>
       <c r="C2117" t="n">
-        <v>34.58262090962259</v>
+        <v>11.52754030320753</v>
       </c>
       <c r="D2117" t="b">
         <v>0</v>
@@ -30119,7 +30119,7 @@
         <v>45456</v>
       </c>
       <c r="C2120" t="n">
-        <v>30.3448635840333</v>
+        <v>10.1149545280111</v>
       </c>
       <c r="D2120" t="b">
         <v>0</v>
@@ -30175,7 +30175,7 @@
         <v>45457</v>
       </c>
       <c r="C2124" t="n">
-        <v>33.21111388894026</v>
+        <v>11.07037129631342</v>
       </c>
       <c r="D2124" t="b">
         <v>0</v>
@@ -30217,7 +30217,7 @@
         <v>45458</v>
       </c>
       <c r="C2127" t="n">
-        <v>33.57188117886075</v>
+        <v>11.19062705962025</v>
       </c>
       <c r="D2127" t="b">
         <v>1</v>
@@ -30273,7 +30273,7 @@
         <v>45459</v>
       </c>
       <c r="C2131" t="n">
-        <v>33.57188117886075</v>
+        <v>11.19062705962025</v>
       </c>
       <c r="D2131" t="b">
         <v>1</v>
@@ -30329,7 +30329,7 @@
         <v>45460</v>
       </c>
       <c r="C2135" t="n">
-        <v>33.57188117886075</v>
+        <v>11.19062705962025</v>
       </c>
       <c r="D2135" t="b">
         <v>0</v>
@@ -30399,7 +30399,7 @@
         <v>45461</v>
       </c>
       <c r="C2140" t="n">
-        <v>31.37055843951927</v>
+        <v>10.45685281317309</v>
       </c>
       <c r="D2140" t="b">
         <v>0</v>
@@ -30427,7 +30427,7 @@
         <v>45462</v>
       </c>
       <c r="C2142" t="n">
-        <v>32.98010625827604</v>
+        <v>10.99336875275868</v>
       </c>
       <c r="D2142" t="b">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>45463</v>
       </c>
       <c r="C2148" t="n">
-        <v>30.48688116114867</v>
+        <v>10.16229372038289</v>
       </c>
       <c r="D2148" t="b">
         <v>0</v>
@@ -30539,7 +30539,7 @@
         <v>45464</v>
       </c>
       <c r="C2150" t="n">
-        <v>30.96879420028491</v>
+        <v>10.32293140009497</v>
       </c>
       <c r="D2150" t="b">
         <v>0</v>
@@ -30623,7 +30623,7 @@
         <v>45465</v>
       </c>
       <c r="C2156" t="n">
-        <v>33.6877772130882</v>
+        <v>11.2292590710294</v>
       </c>
       <c r="D2156" t="b">
         <v>1</v>
@@ -30651,7 +30651,7 @@
         <v>45466</v>
       </c>
       <c r="C2158" t="n">
-        <v>33.6877772130882</v>
+        <v>11.2292590710294</v>
       </c>
       <c r="D2158" t="b">
         <v>1</v>
@@ -30721,7 +30721,7 @@
         <v>45467</v>
       </c>
       <c r="C2163" t="n">
-        <v>33.6877772130882</v>
+        <v>11.2292590710294</v>
       </c>
       <c r="D2163" t="b">
         <v>0</v>
@@ -30763,7 +30763,7 @@
         <v>45468</v>
       </c>
       <c r="C2166" t="n">
-        <v>27.67162965137061</v>
+        <v>9.22387655045687</v>
       </c>
       <c r="D2166" t="b">
         <v>0</v>
@@ -30819,7 +30819,7 @@
         <v>45469</v>
       </c>
       <c r="C2170" t="n">
-        <v>31.03225791408258</v>
+        <v>10.34408597136086</v>
       </c>
       <c r="D2170" t="b">
         <v>0</v>
@@ -30917,7 +30917,7 @@
         <v>45470</v>
       </c>
       <c r="C2177" t="n">
-        <v>32.15594295654018</v>
+        <v>10.71864765218006</v>
       </c>
       <c r="D2177" t="b">
         <v>0</v>
@@ -30973,7 +30973,7 @@
         <v>45471</v>
       </c>
       <c r="C2181" t="n">
-        <v>31.98959573120058</v>
+        <v>10.66319857706686</v>
       </c>
       <c r="D2181" t="b">
         <v>0</v>
@@ -31001,7 +31001,7 @@
         <v>45472</v>
       </c>
       <c r="C2183" t="n">
-        <v>32.80493239019208</v>
+        <v>10.93497746339736</v>
       </c>
       <c r="D2183" t="b">
         <v>1</v>
@@ -31057,7 +31057,7 @@
         <v>45473</v>
       </c>
       <c r="C2187" t="n">
-        <v>32.80493239019208</v>
+        <v>10.93497746339736</v>
       </c>
       <c r="D2187" t="b">
         <v>1</v>
@@ -31113,7 +31113,7 @@
         <v>45474</v>
       </c>
       <c r="C2191" t="n">
-        <v>32.80493239019208</v>
+        <v>10.93497746339736</v>
       </c>
       <c r="D2191" t="b">
         <v>0</v>
@@ -31169,7 +31169,7 @@
         <v>45475</v>
       </c>
       <c r="C2195" t="n">
-        <v>32.57151828604755</v>
+        <v>10.85717276201585</v>
       </c>
       <c r="D2195" t="b">
         <v>0</v>
@@ -31225,7 +31225,7 @@
         <v>45476</v>
       </c>
       <c r="C2199" t="n">
-        <v>30.33720752859147</v>
+        <v>10.11240250953049</v>
       </c>
       <c r="D2199" t="b">
         <v>0</v>
@@ -31295,7 +31295,7 @@
         <v>45477</v>
       </c>
       <c r="C2204" t="n">
-        <v>33.5583629777723</v>
+        <v>11.18612099259077</v>
       </c>
       <c r="D2204" t="b">
         <v>0</v>
@@ -31323,7 +31323,7 @@
         <v>45478</v>
       </c>
       <c r="C2206" t="n">
-        <v>29.71202926702295</v>
+        <v>9.904009755674316</v>
       </c>
       <c r="D2206" t="b">
         <v>0</v>
@@ -31407,7 +31407,7 @@
         <v>45479</v>
       </c>
       <c r="C2212" t="n">
-        <v>33.40302016642965</v>
+        <v>11.13434005547655</v>
       </c>
       <c r="D2212" t="b">
         <v>1</v>
@@ -31477,7 +31477,7 @@
         <v>45480</v>
       </c>
       <c r="C2217" t="n">
-        <v>33.40302016642965</v>
+        <v>11.13434005547655</v>
       </c>
       <c r="D2217" t="b">
         <v>1</v>
@@ -31533,7 +31533,7 @@
         <v>45481</v>
       </c>
       <c r="C2221" t="n">
-        <v>33.40302016642965</v>
+        <v>11.13434005547655</v>
       </c>
       <c r="D2221" t="b">
         <v>0</v>
@@ -31589,7 +31589,7 @@
         <v>45482</v>
       </c>
       <c r="C2225" t="n">
-        <v>33.12728827863588</v>
+        <v>11.04242942621196</v>
       </c>
       <c r="D2225" t="b">
         <v>0</v>
@@ -31631,7 +31631,7 @@
         <v>45483</v>
       </c>
       <c r="C2228" t="n">
-        <v>30.43618491846297</v>
+        <v>10.14539497282099</v>
       </c>
       <c r="D2228" t="b">
         <v>0</v>
@@ -31701,7 +31701,7 @@
         <v>45484</v>
       </c>
       <c r="C2233" t="n">
-        <v>34.54039921374261</v>
+        <v>11.51346640458087</v>
       </c>
       <c r="D2233" t="b">
         <v>0</v>
@@ -31715,7 +31715,7 @@
         <v>45485</v>
       </c>
       <c r="C2234" t="n">
-        <v>27.5920341545549</v>
+        <v>9.197344718184967</v>
       </c>
       <c r="D2234" t="b">
         <v>0</v>
@@ -31771,7 +31771,7 @@
         <v>45486</v>
       </c>
       <c r="C2238" t="n">
-        <v>28.66822365863835</v>
+        <v>9.55607455287945</v>
       </c>
       <c r="D2238" t="b">
         <v>1</v>
@@ -31841,7 +31841,7 @@
         <v>45487</v>
       </c>
       <c r="C2243" t="n">
-        <v>28.66822365863835</v>
+        <v>9.55607455287945</v>
       </c>
       <c r="D2243" t="b">
         <v>1</v>
@@ -31911,7 +31911,7 @@
         <v>45488</v>
       </c>
       <c r="C2248" t="n">
-        <v>28.66822365863835</v>
+        <v>9.55607455287945</v>
       </c>
       <c r="D2248" t="b">
         <v>0</v>
@@ -31967,7 +31967,7 @@
         <v>45489</v>
       </c>
       <c r="C2252" t="n">
-        <v>29.45066211624877</v>
+        <v>9.816887372082924</v>
       </c>
       <c r="D2252" t="b">
         <v>0</v>
@@ -32037,7 +32037,7 @@
         <v>45490</v>
       </c>
       <c r="C2257" t="n">
-        <v>35.65397192890572</v>
+        <v>11.88465730963524</v>
       </c>
       <c r="D2257" t="b">
         <v>0</v>
@@ -32065,7 +32065,7 @@
         <v>45491</v>
       </c>
       <c r="C2259" t="n">
-        <v>29.3912763839731</v>
+        <v>9.797092127991034</v>
       </c>
       <c r="D2259" t="b">
         <v>0</v>
@@ -32107,7 +32107,7 @@
         <v>45492</v>
       </c>
       <c r="C2262" t="n">
-        <v>30.88384744457211</v>
+        <v>10.29461581485737</v>
       </c>
       <c r="D2262" t="b">
         <v>0</v>
@@ -32163,7 +32163,7 @@
         <v>45493</v>
       </c>
       <c r="C2266" t="n">
-        <v>27.36276511221031</v>
+        <v>9.120921704070104</v>
       </c>
       <c r="D2266" t="b">
         <v>1</v>
@@ -32247,7 +32247,7 @@
         <v>45494</v>
       </c>
       <c r="C2272" t="n">
-        <v>27.36276511221031</v>
+        <v>9.120921704070104</v>
       </c>
       <c r="D2272" t="b">
         <v>1</v>
@@ -32317,7 +32317,7 @@
         <v>45495</v>
       </c>
       <c r="C2277" t="n">
-        <v>27.36276511221031</v>
+        <v>9.120921704070104</v>
       </c>
       <c r="D2277" t="b">
         <v>0</v>
@@ -32331,7 +32331,7 @@
         <v>45496</v>
       </c>
       <c r="C2278" t="n">
-        <v>32.1542111353686</v>
+        <v>10.7180703784562</v>
       </c>
       <c r="D2278" t="b">
         <v>0</v>
@@ -32429,7 +32429,7 @@
         <v>45497</v>
       </c>
       <c r="C2285" t="n">
-        <v>26.74721173402861</v>
+        <v>8.915737244676203</v>
       </c>
       <c r="D2285" t="b">
         <v>0</v>
@@ -32457,7 +32457,7 @@
         <v>45498</v>
       </c>
       <c r="C2287" t="n">
-        <v>33.4612969079088</v>
+        <v>11.1537656359696</v>
       </c>
       <c r="D2287" t="b">
         <v>0</v>
@@ -32513,7 +32513,7 @@
         <v>45499</v>
       </c>
       <c r="C2291" t="n">
-        <v>26.97776095805406</v>
+        <v>8.99258698601802</v>
       </c>
       <c r="D2291" t="b">
         <v>0</v>
@@ -32569,7 +32569,7 @@
         <v>45500</v>
       </c>
       <c r="C2295" t="n">
-        <v>33.61589465770968</v>
+        <v>11.20529821923656</v>
       </c>
       <c r="D2295" t="b">
         <v>1</v>
@@ -32653,7 +32653,7 @@
         <v>45501</v>
       </c>
       <c r="C2301" t="n">
-        <v>33.61589465770968</v>
+        <v>11.20529821923656</v>
       </c>
       <c r="D2301" t="b">
         <v>1</v>
@@ -32667,7 +32667,7 @@
         <v>45502</v>
       </c>
       <c r="C2302" t="n">
-        <v>33.61589465770968</v>
+        <v>11.20529821923656</v>
       </c>
       <c r="D2302" t="b">
         <v>0</v>
@@ -32751,7 +32751,7 @@
         <v>45503</v>
       </c>
       <c r="C2308" t="n">
-        <v>30.30324809982096</v>
+        <v>10.10108269994032</v>
       </c>
       <c r="D2308" t="b">
         <v>0</v>
@@ -32793,7 +32793,7 @@
         <v>45504</v>
       </c>
       <c r="C2311" t="n">
-        <v>29.64521103023797</v>
+        <v>9.881737010079323</v>
       </c>
       <c r="D2311" t="b">
         <v>0</v>
@@ -32849,7 +32849,7 @@
         <v>45505</v>
       </c>
       <c r="C2315" t="n">
-        <v>32.79059487163965</v>
+        <v>10.93019829054655</v>
       </c>
       <c r="D2315" t="b">
         <v>0</v>
@@ -32933,7 +32933,7 @@
         <v>45506</v>
       </c>
       <c r="C2321" t="n">
-        <v>27.11266669993372</v>
+        <v>9.037555566644574</v>
       </c>
       <c r="D2321" t="b">
         <v>0</v>
@@ -32975,7 +32975,7 @@
         <v>45507</v>
       </c>
       <c r="C2324" t="n">
-        <v>31.10811940232406</v>
+        <v>10.36937313410802</v>
       </c>
       <c r="D2324" t="b">
         <v>1</v>
@@ -33045,7 +33045,7 @@
         <v>45508</v>
       </c>
       <c r="C2329" t="n">
-        <v>31.10811940232406</v>
+        <v>10.36937313410802</v>
       </c>
       <c r="D2329" t="b">
         <v>1</v>
@@ -33059,7 +33059,7 @@
         <v>45509</v>
       </c>
       <c r="C2330" t="n">
-        <v>31.10811940232406</v>
+        <v>10.36937313410802</v>
       </c>
       <c r="D2330" t="b">
         <v>0</v>
@@ -33129,7 +33129,7 @@
         <v>45510</v>
       </c>
       <c r="C2335" t="n">
-        <v>25.3881783286467</v>
+        <v>8.4627261095489</v>
       </c>
       <c r="D2335" t="b">
         <v>0</v>
@@ -33185,7 +33185,7 @@
         <v>45511</v>
       </c>
       <c r="C2339" t="n">
-        <v>30.90776133799461</v>
+        <v>10.30258711266487</v>
       </c>
       <c r="D2339" t="b">
         <v>0</v>
@@ -33269,7 +33269,7 @@
         <v>45512</v>
       </c>
       <c r="C2345" t="n">
-        <v>25.6531825741122</v>
+        <v>8.551060858037399</v>
       </c>
       <c r="D2345" t="b">
         <v>0</v>
@@ -33311,7 +33311,7 @@
         <v>45513</v>
       </c>
       <c r="C2348" t="n">
-        <v>32.4265637730837</v>
+        <v>10.8088545910279</v>
       </c>
       <c r="D2348" t="b">
         <v>0</v>
@@ -33353,7 +33353,7 @@
         <v>45514</v>
       </c>
       <c r="C2351" t="n">
-        <v>32.93647022402085</v>
+        <v>10.97882340800695</v>
       </c>
       <c r="D2351" t="b">
         <v>1</v>
@@ -33437,7 +33437,7 @@
         <v>45515</v>
       </c>
       <c r="C2357" t="n">
-        <v>32.93647022402085</v>
+        <v>10.97882340800695</v>
       </c>
       <c r="D2357" t="b">
         <v>1</v>
@@ -33493,7 +33493,7 @@
         <v>45516</v>
       </c>
       <c r="C2361" t="n">
-        <v>32.93647022402085</v>
+        <v>10.97882340800695</v>
       </c>
       <c r="D2361" t="b">
         <v>0</v>
@@ -33535,7 +33535,7 @@
         <v>45517</v>
       </c>
       <c r="C2364" t="n">
-        <v>32.84141656062741</v>
+        <v>10.94713885354247</v>
       </c>
       <c r="D2364" t="b">
         <v>0</v>
@@ -33605,7 +33605,7 @@
         <v>45518</v>
       </c>
       <c r="C2369" t="n">
-        <v>32.19078412057518</v>
+        <v>10.73026137352506</v>
       </c>
       <c r="D2369" t="b">
         <v>0</v>
@@ -33647,7 +33647,7 @@
         <v>45519</v>
       </c>
       <c r="C2372" t="n">
-        <v>28.32101067597095</v>
+        <v>9.440336891990317</v>
       </c>
       <c r="D2372" t="b">
         <v>0</v>
@@ -33703,7 +33703,7 @@
         <v>45520</v>
       </c>
       <c r="C2376" t="n">
-        <v>29.26492080809622</v>
+        <v>9.75497360269874</v>
       </c>
       <c r="D2376" t="b">
         <v>0</v>
@@ -33759,7 +33759,7 @@
         <v>45521</v>
       </c>
       <c r="C2380" t="n">
-        <v>33.54641520505947</v>
+        <v>11.18213840168649</v>
       </c>
       <c r="D2380" t="b">
         <v>1</v>
@@ -33829,7 +33829,7 @@
         <v>45522</v>
       </c>
       <c r="C2385" t="n">
-        <v>33.54641520505947</v>
+        <v>11.18213840168649</v>
       </c>
       <c r="D2385" t="b">
         <v>1</v>
@@ -33857,7 +33857,7 @@
         <v>45523</v>
       </c>
       <c r="C2387" t="n">
-        <v>33.54641520505947</v>
+        <v>11.18213840168649</v>
       </c>
       <c r="D2387" t="b">
         <v>0</v>
@@ -33899,7 +33899,7 @@
         <v>45524</v>
       </c>
       <c r="C2390" t="n">
-        <v>29.48846766470441</v>
+        <v>9.829489221568135</v>
       </c>
       <c r="D2390" t="b">
         <v>0</v>
@@ -33983,7 +33983,7 @@
         <v>45525</v>
       </c>
       <c r="C2396" t="n">
-        <v>32.85956419427322</v>
+        <v>10.95318806475774</v>
       </c>
       <c r="D2396" t="b">
         <v>0</v>
@@ -34011,7 +34011,7 @@
         <v>45526</v>
       </c>
       <c r="C2398" t="n">
-        <v>26.99103366517924</v>
+        <v>8.997011221726414</v>
       </c>
       <c r="D2398" t="b">
         <v>0</v>
@@ -34067,7 +34067,7 @@
         <v>45527</v>
       </c>
       <c r="C2402" t="n">
-        <v>30.2219001036726</v>
+        <v>10.0739667012242</v>
       </c>
       <c r="D2402" t="b">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>45528</v>
       </c>
       <c r="C2406" t="n">
-        <v>26.67348874687768</v>
+        <v>8.891162915625893</v>
       </c>
       <c r="D2406" t="b">
         <v>1</v>
@@ -34207,7 +34207,7 @@
         <v>45529</v>
       </c>
       <c r="C2412" t="n">
-        <v>26.67348874687768</v>
+        <v>8.891162915625893</v>
       </c>
       <c r="D2412" t="b">
         <v>1</v>
@@ -34277,7 +34277,7 @@
         <v>45530</v>
       </c>
       <c r="C2417" t="n">
-        <v>26.67348874687768</v>
+        <v>8.891162915625893</v>
       </c>
       <c r="D2417" t="b">
         <v>0</v>
@@ -34319,7 +34319,7 @@
         <v>45531</v>
       </c>
       <c r="C2420" t="n">
-        <v>28.68600917860445</v>
+        <v>9.562003059534817</v>
       </c>
       <c r="D2420" t="b">
         <v>0</v>
@@ -34361,7 +34361,7 @@
         <v>45532</v>
       </c>
       <c r="C2423" t="n">
-        <v>28.84440179925557</v>
+        <v>9.614800599751858</v>
       </c>
       <c r="D2423" t="b">
         <v>0</v>
@@ -34417,7 +34417,7 @@
         <v>45533</v>
       </c>
       <c r="C2427" t="n">
-        <v>28.98719443724778</v>
+        <v>9.662398145749261</v>
       </c>
       <c r="D2427" t="b">
         <v>0</v>
@@ -34501,7 +34501,7 @@
         <v>45534</v>
       </c>
       <c r="C2433" t="n">
-        <v>28.51480368981429</v>
+        <v>9.50493456327143</v>
       </c>
       <c r="D2433" t="b">
         <v>0</v>
@@ -34557,7 +34557,7 @@
         <v>45535</v>
       </c>
       <c r="C2437" t="n">
-        <v>32.30168150252553</v>
+        <v>10.76722716750851</v>
       </c>
       <c r="D2437" t="b">
         <v>1</v>
@@ -34571,7 +34571,7 @@
         <v>45536</v>
       </c>
       <c r="C2438" t="n">
-        <v>32.30168150252553</v>
+        <v>10.76722716750851</v>
       </c>
       <c r="D2438" t="b">
         <v>1</v>
@@ -34627,7 +34627,7 @@
         <v>45537</v>
       </c>
       <c r="C2442" t="n">
-        <v>32.30168150252553</v>
+        <v>10.76722716750851</v>
       </c>
       <c r="D2442" t="b">
         <v>0</v>
@@ -34683,7 +34683,7 @@
         <v>45538</v>
       </c>
       <c r="C2446" t="n">
-        <v>29.70297838212619</v>
+        <v>9.900992794042065</v>
       </c>
       <c r="D2446" t="b">
         <v>0</v>
@@ -34753,7 +34753,7 @@
         <v>45539</v>
       </c>
       <c r="C2451" t="n">
-        <v>28.17959573586066</v>
+        <v>9.39319857862022</v>
       </c>
       <c r="D2451" t="b">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>45540</v>
       </c>
       <c r="C2454" t="n">
-        <v>33.31254626202306</v>
+        <v>11.10418208734102</v>
       </c>
       <c r="D2454" t="b">
         <v>0</v>
@@ -34851,7 +34851,7 @@
         <v>45541</v>
       </c>
       <c r="C2458" t="n">
-        <v>30.40302026397975</v>
+        <v>10.13434008799325</v>
       </c>
       <c r="D2458" t="b">
         <v>0</v>
@@ -34907,7 +34907,7 @@
         <v>45542</v>
       </c>
       <c r="C2462" t="n">
-        <v>29.69241150891486</v>
+        <v>9.897470502971618</v>
       </c>
       <c r="D2462" t="b">
         <v>1</v>
@@ -34977,7 +34977,7 @@
         <v>45543</v>
       </c>
       <c r="C2467" t="n">
-        <v>29.69241150891486</v>
+        <v>9.897470502971618</v>
       </c>
       <c r="D2467" t="b">
         <v>1</v>
@@ -35047,7 +35047,7 @@
         <v>45544</v>
       </c>
       <c r="C2472" t="n">
-        <v>29.69241150891486</v>
+        <v>9.897470502971618</v>
       </c>
       <c r="D2472" t="b">
         <v>0</v>
@@ -35117,7 +35117,7 @@
         <v>45545</v>
       </c>
       <c r="C2477" t="n">
-        <v>26.26515860399231</v>
+        <v>8.755052867997437</v>
       </c>
       <c r="D2477" t="b">
         <v>0</v>
@@ -35131,7 +35131,7 @@
         <v>45546</v>
       </c>
       <c r="C2478" t="n">
-        <v>28.03175907635456</v>
+        <v>9.343919692118186</v>
       </c>
       <c r="D2478" t="b">
         <v>0</v>
@@ -35201,7 +35201,7 @@
         <v>45547</v>
       </c>
       <c r="C2483" t="n">
-        <v>34.55506246486194</v>
+        <v>11.51835415495398</v>
       </c>
       <c r="D2483" t="b">
         <v>0</v>
@@ -35285,7 +35285,7 @@
         <v>45548</v>
       </c>
       <c r="C2489" t="n">
-        <v>31.13101933864824</v>
+        <v>10.37700644621608</v>
       </c>
       <c r="D2489" t="b">
         <v>0</v>
@@ -35327,7 +35327,7 @@
         <v>45549</v>
       </c>
       <c r="C2492" t="n">
-        <v>30.30674805640869</v>
+        <v>10.10224935213623</v>
       </c>
       <c r="D2492" t="b">
         <v>1</v>
@@ -35355,7 +35355,7 @@
         <v>45550</v>
       </c>
       <c r="C2494" t="n">
-        <v>30.30674805640869</v>
+        <v>10.10224935213623</v>
       </c>
       <c r="D2494" t="b">
         <v>1</v>
@@ -35411,7 +35411,7 @@
         <v>45551</v>
       </c>
       <c r="C2498" t="n">
-        <v>30.30674805640869</v>
+        <v>10.10224935213623</v>
       </c>
       <c r="D2498" t="b">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>45552</v>
       </c>
       <c r="C2505" t="n">
-        <v>30.77171157816534</v>
+        <v>10.25723719272178</v>
       </c>
       <c r="D2505" t="b">
         <v>0</v>
@@ -35551,7 +35551,7 @@
         <v>45553</v>
       </c>
       <c r="C2508" t="n">
-        <v>26.40066111128044</v>
+        <v>8.800220370426814</v>
       </c>
       <c r="D2508" t="b">
         <v>0</v>
@@ -35579,7 +35579,7 @@
         <v>45554</v>
       </c>
       <c r="C2510" t="n">
-        <v>32.92167946150404</v>
+        <v>10.97389315383468</v>
       </c>
       <c r="D2510" t="b">
         <v>0</v>
@@ -35663,7 +35663,7 @@
         <v>45555</v>
       </c>
       <c r="C2516" t="n">
-        <v>26.83226488018332</v>
+        <v>8.944088293394442</v>
       </c>
       <c r="D2516" t="b">
         <v>0</v>
@@ -35733,7 +35733,7 @@
         <v>45556</v>
       </c>
       <c r="C2521" t="n">
-        <v>34.80895242694191</v>
+        <v>11.60298414231397</v>
       </c>
       <c r="D2521" t="b">
         <v>1</v>
@@ -35747,7 +35747,7 @@
         <v>45557</v>
       </c>
       <c r="C2522" t="n">
-        <v>34.80895242694191</v>
+        <v>11.60298414231397</v>
       </c>
       <c r="D2522" t="b">
         <v>1</v>
@@ -35831,7 +35831,7 @@
         <v>45558</v>
       </c>
       <c r="C2528" t="n">
-        <v>34.80895242694191</v>
+        <v>11.60298414231397</v>
       </c>
       <c r="D2528" t="b">
         <v>0</v>
@@ -35901,7 +35901,7 @@
         <v>45559</v>
       </c>
       <c r="C2533" t="n">
-        <v>33.12574555321488</v>
+        <v>11.04191518440496</v>
       </c>
       <c r="D2533" t="b">
         <v>0</v>
@@ -35943,7 +35943,7 @@
         <v>45560</v>
       </c>
       <c r="C2536" t="n">
-        <v>32.75035665491838</v>
+        <v>10.91678555163946</v>
       </c>
       <c r="D2536" t="b">
         <v>0</v>
@@ -35971,7 +35971,7 @@
         <v>45561</v>
       </c>
       <c r="C2538" t="n">
-        <v>32.32945916501034</v>
+        <v>10.77648638833678</v>
       </c>
       <c r="D2538" t="b">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>45562</v>
       </c>
       <c r="C2543" t="n">
-        <v>28.31616270435062</v>
+        <v>9.438720901450207</v>
       </c>
       <c r="D2543" t="b">
         <v>0</v>
@@ -36083,7 +36083,7 @@
         <v>45563</v>
       </c>
       <c r="C2546" t="n">
-        <v>30.24400712523567</v>
+        <v>10.08133570841189</v>
       </c>
       <c r="D2546" t="b">
         <v>1</v>
@@ -36139,7 +36139,7 @@
         <v>45564</v>
       </c>
       <c r="C2550" t="n">
-        <v>30.24400712523567</v>
+        <v>10.08133570841189</v>
       </c>
       <c r="D2550" t="b">
         <v>1</v>
@@ -36223,7 +36223,7 @@
         <v>45565</v>
       </c>
       <c r="C2556" t="n">
-        <v>30.24400712523567</v>
+        <v>10.08133570841189</v>
       </c>
       <c r="D2556" t="b">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>45566</v>
       </c>
       <c r="C2560" t="n">
-        <v>31.76341445778483</v>
+        <v>10.58780481926161</v>
       </c>
       <c r="D2560" t="b">
         <v>0</v>
@@ -36321,7 +36321,7 @@
         <v>45567</v>
       </c>
       <c r="C2563" t="n">
-        <v>28.62873904674444</v>
+        <v>9.542913015581478</v>
       </c>
       <c r="D2563" t="b">
         <v>0</v>
@@ -36405,7 +36405,7 @@
         <v>45568</v>
       </c>
       <c r="C2569" t="n">
-        <v>27.33939944139937</v>
+        <v>9.113133147133121</v>
       </c>
       <c r="D2569" t="b">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>45569</v>
       </c>
       <c r="C2571" t="n">
-        <v>28.02920769365157</v>
+        <v>9.343069231217189</v>
       </c>
       <c r="D2571" t="b">
         <v>0</v>
@@ -36475,7 +36475,7 @@
         <v>45570</v>
       </c>
       <c r="C2574" t="n">
-        <v>34.36226834357448</v>
+        <v>11.45408944785816</v>
       </c>
       <c r="D2574" t="b">
         <v>1</v>
@@ -36545,7 +36545,7 @@
         <v>45571</v>
       </c>
       <c r="C2579" t="n">
-        <v>34.36226834357448</v>
+        <v>11.45408944785816</v>
       </c>
       <c r="D2579" t="b">
         <v>1</v>
@@ -36615,7 +36615,7 @@
         <v>45572</v>
       </c>
       <c r="C2584" t="n">
-        <v>34.36226834357448</v>
+        <v>11.45408944785816</v>
       </c>
       <c r="D2584" t="b">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>45573</v>
       </c>
       <c r="C2588" t="n">
-        <v>34.93696114583712</v>
+        <v>11.64565371527904</v>
       </c>
       <c r="D2588" t="b">
         <v>0</v>
@@ -36699,7 +36699,7 @@
         <v>45574</v>
       </c>
       <c r="C2590" t="n">
-        <v>30.80235955216326</v>
+        <v>10.26745318405442</v>
       </c>
       <c r="D2590" t="b">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>45575</v>
       </c>
       <c r="C2594" t="n">
-        <v>32.48756903063733</v>
+        <v>10.82918967687911</v>
       </c>
       <c r="D2594" t="b">
         <v>0</v>
@@ -36811,7 +36811,7 @@
         <v>45576</v>
       </c>
       <c r="C2598" t="n">
-        <v>36.46574431241796</v>
+        <v>12.15524810413932</v>
       </c>
       <c r="D2598" t="b">
         <v>0</v>
@@ -36867,7 +36867,7 @@
         <v>45577</v>
       </c>
       <c r="C2602" t="n">
-        <v>33.0333974111052</v>
+        <v>11.0111324703684</v>
       </c>
       <c r="D2602" t="b">
         <v>1</v>
@@ -36937,7 +36937,7 @@
         <v>45578</v>
       </c>
       <c r="C2607" t="n">
-        <v>33.0333974111052</v>
+        <v>11.0111324703684</v>
       </c>
       <c r="D2607" t="b">
         <v>1</v>
@@ -36993,7 +36993,7 @@
         <v>45579</v>
       </c>
       <c r="C2611" t="n">
-        <v>33.0333974111052</v>
+        <v>11.0111324703684</v>
       </c>
       <c r="D2611" t="b">
         <v>0</v>
@@ -37035,7 +37035,7 @@
         <v>45580</v>
       </c>
       <c r="C2614" t="n">
-        <v>34.42708497035109</v>
+        <v>11.47569499011703</v>
       </c>
       <c r="D2614" t="b">
         <v>0</v>
@@ -37133,7 +37133,7 @@
         <v>45581</v>
       </c>
       <c r="C2621" t="n">
-        <v>30.21977044271676</v>
+        <v>10.07325681423892</v>
       </c>
       <c r="D2621" t="b">
         <v>0</v>
@@ -37175,7 +37175,7 @@
         <v>45582</v>
       </c>
       <c r="C2624" t="n">
-        <v>36.03638026736002</v>
+        <v>12.01212675578667</v>
       </c>
       <c r="D2624" t="b">
         <v>0</v>
@@ -37203,7 +37203,7 @@
         <v>45583</v>
       </c>
       <c r="C2626" t="n">
-        <v>36.35417069360367</v>
+        <v>12.11805689786789</v>
       </c>
       <c r="D2626" t="b">
         <v>0</v>
@@ -37273,7 +37273,7 @@
         <v>45584</v>
       </c>
       <c r="C2631" t="n">
-        <v>32.39820405740149</v>
+        <v>10.79940135246716</v>
       </c>
       <c r="D2631" t="b">
         <v>1</v>
@@ -37357,7 +37357,7 @@
         <v>45585</v>
       </c>
       <c r="C2637" t="n">
-        <v>32.39820405740149</v>
+        <v>10.79940135246716</v>
       </c>
       <c r="D2637" t="b">
         <v>1</v>
@@ -37399,7 +37399,7 @@
         <v>45586</v>
       </c>
       <c r="C2640" t="n">
-        <v>32.39820405740149</v>
+        <v>10.79940135246716</v>
       </c>
       <c r="D2640" t="b">
         <v>0</v>
@@ -37469,7 +37469,7 @@
         <v>45587</v>
       </c>
       <c r="C2645" t="n">
-        <v>30.22687703844747</v>
+        <v>10.07562567948249</v>
       </c>
       <c r="D2645" t="b">
         <v>0</v>
@@ -37525,7 +37525,7 @@
         <v>45588</v>
       </c>
       <c r="C2649" t="n">
-        <v>31.54448785336752</v>
+        <v>10.51482928445584</v>
       </c>
       <c r="D2649" t="b">
         <v>0</v>
@@ -37581,7 +37581,7 @@
         <v>45589</v>
       </c>
       <c r="C2653" t="n">
-        <v>36.19013210266701</v>
+        <v>12.06337736755567</v>
       </c>
       <c r="D2653" t="b">
         <v>0</v>
@@ -37623,7 +37623,7 @@
         <v>45590</v>
       </c>
       <c r="C2656" t="n">
-        <v>33.63293632659321</v>
+        <v>11.21097877553107</v>
       </c>
       <c r="D2656" t="b">
         <v>0</v>
@@ -37679,7 +37679,7 @@
         <v>45591</v>
       </c>
       <c r="C2660" t="n">
-        <v>34.67301097829316</v>
+        <v>11.55767032609772</v>
       </c>
       <c r="D2660" t="b">
         <v>1</v>
@@ -37749,7 +37749,7 @@
         <v>45592</v>
       </c>
       <c r="C2665" t="n">
-        <v>34.67301097829316</v>
+        <v>11.55767032609772</v>
       </c>
       <c r="D2665" t="b">
         <v>1</v>
@@ -37763,7 +37763,7 @@
         <v>45593</v>
       </c>
       <c r="C2666" t="n">
-        <v>34.67301097829316</v>
+        <v>11.55767032609772</v>
       </c>
       <c r="D2666" t="b">
         <v>0</v>
@@ -37833,7 +37833,7 @@
         <v>45594</v>
       </c>
       <c r="C2671" t="n">
-        <v>31.3481250808566</v>
+        <v>10.4493750269522</v>
       </c>
       <c r="D2671" t="b">
         <v>0</v>
@@ -37875,7 +37875,7 @@
         <v>45595</v>
       </c>
       <c r="C2674" t="n">
-        <v>31.02086027684823</v>
+        <v>10.34028675894941</v>
       </c>
       <c r="D2674" t="b">
         <v>0</v>
@@ -37973,7 +37973,7 @@
         <v>45596</v>
       </c>
       <c r="C2681" t="n">
-        <v>29.78526898364299</v>
+        <v>9.928422994547665</v>
       </c>
       <c r="D2681" t="b">
         <v>0</v>
@@ -38015,7 +38015,7 @@
         <v>45597</v>
       </c>
       <c r="C2684" t="n">
-        <v>33.50888091032874</v>
+        <v>11.16962697010958</v>
       </c>
       <c r="D2684" t="b">
         <v>0</v>
@@ -38071,7 +38071,7 @@
         <v>45598</v>
       </c>
       <c r="C2688" t="n">
-        <v>35.69108802522661</v>
+        <v>11.8970293417422</v>
       </c>
       <c r="D2688" t="b">
         <v>1</v>
@@ -38099,7 +38099,7 @@
         <v>45599</v>
       </c>
       <c r="C2690" t="n">
-        <v>35.69108802522661</v>
+        <v>11.8970293417422</v>
       </c>
       <c r="D2690" t="b">
         <v>1</v>
@@ -38169,7 +38169,7 @@
         <v>45600</v>
       </c>
       <c r="C2695" t="n">
-        <v>35.69108802522661</v>
+        <v>11.8970293417422</v>
       </c>
       <c r="D2695" t="b">
         <v>0</v>
@@ -38239,7 +38239,7 @@
         <v>45601</v>
       </c>
       <c r="C2700" t="n">
-        <v>35.56798343392551</v>
+        <v>11.85599447797517</v>
       </c>
       <c r="D2700" t="b">
         <v>0</v>
@@ -38281,7 +38281,7 @@
         <v>45602</v>
       </c>
       <c r="C2703" t="n">
-        <v>30.43419052993713</v>
+        <v>10.14473017664571</v>
       </c>
       <c r="D2703" t="b">
         <v>0</v>
@@ -38351,7 +38351,7 @@
         <v>45603</v>
       </c>
       <c r="C2708" t="n">
-        <v>35.90252351466297</v>
+        <v>11.96750783822099</v>
       </c>
       <c r="D2708" t="b">
         <v>0</v>
@@ -38379,7 +38379,7 @@
         <v>45604</v>
       </c>
       <c r="C2710" t="n">
-        <v>40.79220011201628</v>
+        <v>13.59740003733876</v>
       </c>
       <c r="D2710" t="b">
         <v>0</v>
@@ -38477,7 +38477,7 @@
         <v>45605</v>
       </c>
       <c r="C2717" t="n">
-        <v>31.89929777695323</v>
+        <v>10.63309925898441</v>
       </c>
       <c r="D2717" t="b">
         <v>1</v>
@@ -38505,7 +38505,7 @@
         <v>45606</v>
       </c>
       <c r="C2719" t="n">
-        <v>31.89929777695323</v>
+        <v>10.63309925898441</v>
       </c>
       <c r="D2719" t="b">
         <v>1</v>
@@ -38575,7 +38575,7 @@
         <v>45607</v>
       </c>
       <c r="C2724" t="n">
-        <v>31.89929777695323</v>
+        <v>10.63309925898441</v>
       </c>
       <c r="D2724" t="b">
         <v>0</v>
@@ -38603,7 +38603,7 @@
         <v>45608</v>
       </c>
       <c r="C2726" t="n">
-        <v>36.13050325230279</v>
+        <v>12.04350108410093</v>
       </c>
       <c r="D2726" t="b">
         <v>0</v>
@@ -38687,7 +38687,7 @@
         <v>45609</v>
       </c>
       <c r="C2732" t="n">
-        <v>42.01969851743245</v>
+        <v>14.00656617247748</v>
       </c>
       <c r="D2732" t="b">
         <v>0</v>
@@ -38757,7 +38757,7 @@
         <v>45610</v>
       </c>
       <c r="C2737" t="n">
-        <v>40.08491610835632</v>
+        <v>13.36163870278544</v>
       </c>
       <c r="D2737" t="b">
         <v>0</v>
@@ -38813,7 +38813,7 @@
         <v>45611</v>
       </c>
       <c r="C2741" t="n">
-        <v>35.71040751533865</v>
+        <v>11.90346917177955</v>
       </c>
       <c r="D2741" t="b">
         <v>0</v>
@@ -38855,7 +38855,7 @@
         <v>45612</v>
       </c>
       <c r="C2744" t="n">
-        <v>37.52166584788085</v>
+        <v>12.50722194929362</v>
       </c>
       <c r="D2744" t="b">
         <v>1</v>
@@ -38897,7 +38897,7 @@
         <v>45613</v>
       </c>
       <c r="C2747" t="n">
-        <v>37.52166584788085</v>
+        <v>12.50722194929362</v>
       </c>
       <c r="D2747" t="b">
         <v>1</v>
@@ -38981,7 +38981,7 @@
         <v>45614</v>
       </c>
       <c r="C2753" t="n">
-        <v>37.52166584788085</v>
+        <v>12.50722194929362</v>
       </c>
       <c r="D2753" t="b">
         <v>0</v>
@@ -38995,7 +38995,7 @@
         <v>45615</v>
       </c>
       <c r="C2754" t="n">
-        <v>30.90003361847493</v>
+        <v>10.30001120615831</v>
       </c>
       <c r="D2754" t="b">
         <v>0</v>
@@ -39079,7 +39079,7 @@
         <v>45616</v>
       </c>
       <c r="C2760" t="n">
-        <v>31.74069312336042</v>
+        <v>10.58023104112014</v>
       </c>
       <c r="D2760" t="b">
         <v>0</v>
@@ -39121,7 +39121,7 @@
         <v>45617</v>
       </c>
       <c r="C2763" t="n">
-        <v>34.42526817200208</v>
+        <v>11.47508939066736</v>
       </c>
       <c r="D2763" t="b">
         <v>0</v>
@@ -39191,7 +39191,7 @@
         <v>45618</v>
       </c>
       <c r="C2768" t="n">
-        <v>42.58029881895303</v>
+        <v>14.19343293965101</v>
       </c>
       <c r="D2768" t="b">
         <v>0</v>
@@ -39261,7 +39261,7 @@
         <v>45619</v>
       </c>
       <c r="C2773" t="n">
-        <v>36.96338460111825</v>
+        <v>12.32112820037275</v>
       </c>
       <c r="D2773" t="b">
         <v>1</v>
@@ -39275,7 +39275,7 @@
         <v>45620</v>
       </c>
       <c r="C2774" t="n">
-        <v>36.96338460111825</v>
+        <v>12.32112820037275</v>
       </c>
       <c r="D2774" t="b">
         <v>1</v>
@@ -39331,7 +39331,7 @@
         <v>45621</v>
       </c>
       <c r="C2778" t="n">
-        <v>36.96338460111825</v>
+        <v>12.32112820037275</v>
       </c>
       <c r="D2778" t="b">
         <v>0</v>
@@ -39387,7 +39387,7 @@
         <v>45622</v>
       </c>
       <c r="C2782" t="n">
-        <v>38.1331773698451</v>
+        <v>12.7110591232817</v>
       </c>
       <c r="D2782" t="b">
         <v>0</v>
@@ -39485,7 +39485,7 @@
         <v>45623</v>
       </c>
       <c r="C2789" t="n">
-        <v>42.95417148010575</v>
+        <v>14.31805716003525</v>
       </c>
       <c r="D2789" t="b">
         <v>0</v>
@@ -39527,7 +39527,7 @@
         <v>45624</v>
       </c>
       <c r="C2792" t="n">
-        <v>35.47965639907794</v>
+        <v>11.82655213302598</v>
       </c>
       <c r="D2792" t="b">
         <v>0</v>
@@ -39583,7 +39583,7 @@
         <v>45625</v>
       </c>
       <c r="C2796" t="n">
-        <v>41.90998056806013</v>
+        <v>13.96999352268671</v>
       </c>
       <c r="D2796" t="b">
         <v>0</v>
@@ -39639,7 +39639,7 @@
         <v>45626</v>
       </c>
       <c r="C2800" t="n">
-        <v>40.4844987323613</v>
+        <v>13.4948329107871</v>
       </c>
       <c r="D2800" t="b">
         <v>1</v>
@@ -39709,7 +39709,7 @@
         <v>45627</v>
       </c>
       <c r="C2805" t="n">
-        <v>40.4844987323613</v>
+        <v>13.4948329107871</v>
       </c>
       <c r="D2805" t="b">
         <v>1</v>
@@ -39765,7 +39765,7 @@
         <v>45628</v>
       </c>
       <c r="C2809" t="n">
-        <v>40.4844987323613</v>
+        <v>13.4948329107871</v>
       </c>
       <c r="D2809" t="b">
         <v>0</v>
@@ -39779,7 +39779,7 @@
         <v>45629</v>
       </c>
       <c r="C2810" t="n">
-        <v>35.2154270532618</v>
+        <v>11.7384756844206</v>
       </c>
       <c r="D2810" t="b">
         <v>0</v>
@@ -39877,7 +39877,7 @@
         <v>45630</v>
       </c>
       <c r="C2817" t="n">
-        <v>43.61698147385621</v>
+        <v>14.53899382461874</v>
       </c>
       <c r="D2817" t="b">
         <v>0</v>
@@ -39905,7 +39905,7 @@
         <v>45631</v>
       </c>
       <c r="C2819" t="n">
-        <v>35.16161476458927</v>
+        <v>11.72053825486309</v>
       </c>
       <c r="D2819" t="b">
         <v>0</v>
@@ -39947,7 +39947,7 @@
         <v>45632</v>
       </c>
       <c r="C2822" t="n">
-        <v>37.41219044315334</v>
+        <v>12.47073014771778</v>
       </c>
       <c r="D2822" t="b">
         <v>0</v>
@@ -40003,7 +40003,7 @@
         <v>45633</v>
       </c>
       <c r="C2826" t="n">
-        <v>42.33630457698138</v>
+        <v>14.11210152566046</v>
       </c>
       <c r="D2826" t="b">
         <v>1</v>
@@ -40101,7 +40101,7 @@
         <v>45634</v>
       </c>
       <c r="C2833" t="n">
-        <v>42.33630457698138</v>
+        <v>14.11210152566046</v>
       </c>
       <c r="D2833" t="b">
         <v>1</v>
@@ -40129,7 +40129,7 @@
         <v>45635</v>
       </c>
       <c r="C2835" t="n">
-        <v>42.33630457698138</v>
+        <v>14.11210152566046</v>
       </c>
       <c r="D2835" t="b">
         <v>0</v>
@@ -40185,7 +40185,7 @@
         <v>45636</v>
       </c>
       <c r="C2839" t="n">
-        <v>44.55140063011122</v>
+        <v>14.85046687670374</v>
       </c>
       <c r="D2839" t="b">
         <v>0</v>
@@ -40241,7 +40241,7 @@
         <v>45637</v>
       </c>
       <c r="C2843" t="n">
-        <v>43.04508035568531</v>
+        <v>14.34836011856177</v>
       </c>
       <c r="D2843" t="b">
         <v>0</v>
@@ -40297,7 +40297,7 @@
         <v>45638</v>
       </c>
       <c r="C2847" t="n">
-        <v>35.42767482446709</v>
+        <v>11.80922494148903</v>
       </c>
       <c r="D2847" t="b">
         <v>0</v>
@@ -40339,7 +40339,7 @@
         <v>45639</v>
       </c>
       <c r="C2850" t="n">
-        <v>37.32180478962291</v>
+        <v>12.44060159654097</v>
       </c>
       <c r="D2850" t="b">
         <v>0</v>
@@ -40395,7 +40395,7 @@
         <v>45640</v>
       </c>
       <c r="C2854" t="n">
-        <v>40.1400030970293</v>
+        <v>13.3800010323431</v>
       </c>
       <c r="D2854" t="b">
         <v>1</v>
@@ -40465,7 +40465,7 @@
         <v>45641</v>
       </c>
       <c r="C2859" t="n">
-        <v>40.1400030970293</v>
+        <v>13.3800010323431</v>
       </c>
       <c r="D2859" t="b">
         <v>1</v>
@@ -40507,7 +40507,7 @@
         <v>45642</v>
       </c>
       <c r="C2862" t="n">
-        <v>40.1400030970293</v>
+        <v>13.3800010323431</v>
       </c>
       <c r="D2862" t="b">
         <v>0</v>
@@ -40563,7 +40563,7 @@
         <v>45643</v>
       </c>
       <c r="C2866" t="n">
-        <v>44.11821159089991</v>
+        <v>14.70607053029997</v>
       </c>
       <c r="D2866" t="b">
         <v>0</v>
@@ -40633,7 +40633,7 @@
         <v>45644</v>
       </c>
       <c r="C2871" t="n">
-        <v>40.90807579305846</v>
+        <v>13.63602526435282</v>
       </c>
       <c r="D2871" t="b">
         <v>0</v>
@@ -40689,7 +40689,7 @@
         <v>45645</v>
       </c>
       <c r="C2875" t="n">
-        <v>41.13727192002387</v>
+        <v>13.71242397334129</v>
       </c>
       <c r="D2875" t="b">
         <v>0</v>
@@ -40773,7 +40773,7 @@
         <v>45646</v>
       </c>
       <c r="C2881" t="n">
-        <v>34.01615898106071</v>
+        <v>11.33871966035357</v>
       </c>
       <c r="D2881" t="b">
         <v>0</v>
@@ -40787,7 +40787,7 @@
         <v>45647</v>
       </c>
       <c r="C2882" t="n">
-        <v>36.2123869031934</v>
+        <v>12.0707956343978</v>
       </c>
       <c r="D2882" t="b">
         <v>1</v>
@@ -40871,7 +40871,7 @@
         <v>45648</v>
       </c>
       <c r="C2888" t="n">
-        <v>36.2123869031934</v>
+        <v>12.0707956343978</v>
       </c>
       <c r="D2888" t="b">
         <v>1</v>
@@ -40941,7 +40941,7 @@
         <v>45649</v>
       </c>
       <c r="C2893" t="n">
-        <v>36.2123869031934</v>
+        <v>12.0707956343978</v>
       </c>
       <c r="D2893" t="b">
         <v>0</v>
@@ -40997,7 +40997,7 @@
         <v>45650</v>
       </c>
       <c r="C2897" t="n">
-        <v>33.52556514469362</v>
+        <v>11.17518838156454</v>
       </c>
       <c r="D2897" t="b">
         <v>0</v>
@@ -41053,7 +41053,7 @@
         <v>45651</v>
       </c>
       <c r="C2901" t="n">
-        <v>38.1216776922771</v>
+        <v>12.7072258974257</v>
       </c>
       <c r="D2901" t="b">
         <v>0</v>
@@ -41067,7 +41067,7 @@
         <v>45652</v>
       </c>
       <c r="C2902" t="n">
-        <v>35.12612746362966</v>
+        <v>11.70870915454322</v>
       </c>
       <c r="D2902" t="b">
         <v>0</v>
@@ -41151,7 +41151,7 @@
         <v>45653</v>
       </c>
       <c r="C2908" t="n">
-        <v>36.65961910580972</v>
+        <v>12.21987303526991</v>
       </c>
       <c r="D2908" t="b">
         <v>0</v>
@@ -41193,7 +41193,7 @@
         <v>45654</v>
       </c>
       <c r="C2911" t="n">
-        <v>36.31753311034965</v>
+        <v>12.10584437011655</v>
       </c>
       <c r="D2911" t="b">
         <v>1</v>
@@ -41277,7 +41277,7 @@
         <v>45655</v>
       </c>
       <c r="C2917" t="n">
-        <v>36.31753311034965</v>
+        <v>12.10584437011655</v>
       </c>
       <c r="D2917" t="b">
         <v>1</v>
@@ -41319,7 +41319,7 @@
         <v>45656</v>
       </c>
       <c r="C2920" t="n">
-        <v>36.31753311034965</v>
+        <v>12.10584437011655</v>
       </c>
       <c r="D2920" t="b">
         <v>0</v>
@@ -41347,7 +41347,7 @@
         <v>45657</v>
       </c>
       <c r="C2922" t="n">
-        <v>33.66789213258537</v>
+        <v>11.22263071086179</v>
       </c>
       <c r="D2922" t="b">
         <v>0</v>
